--- a/Library/SystemTestCases.xlsx
+++ b/Library/SystemTestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\SystemTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="18612" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Patient\TC001PatientRegistrationPrintHealthCard.py</t>
   </si>
   <si>
-    <t>Norun</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Billing\IPbilling\TC010CancelIPProvisionalBill.py</t>
+  </si>
+  <si>
+    <t>NoRun</t>
   </si>
 </sst>
 </file>
@@ -764,22 +764,22 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,27 +790,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -825,12 +825,12 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -845,32 +845,32 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -879,18 +879,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -899,18 +899,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -919,18 +919,18 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -939,18 +939,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -959,18 +959,18 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -979,18 +979,18 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -999,18 +999,18 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1019,18 +1019,18 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -1039,398 +1039,398 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -1439,18 +1439,18 @@
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -1459,18 +1459,18 @@
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -1479,18 +1479,18 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -1499,18 +1499,18 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -1519,18 +1519,18 @@
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -1539,18 +1539,18 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -1559,18 +1559,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -1579,18 +1579,18 @@
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -1599,18 +1599,18 @@
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -1619,18 +1619,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -1639,18 +1639,18 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -1659,18 +1659,18 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -1679,18 +1679,18 @@
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -1699,18 +1699,18 @@
         <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -1719,18 +1719,18 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -1739,18 +1739,18 @@
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -1759,18 +1759,18 @@
         <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -1779,18 +1779,18 @@
         <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -1799,18 +1799,18 @@
         <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -1819,18 +1819,18 @@
         <v>0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -1839,18 +1839,18 @@
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
@@ -1859,18 +1859,18 @@
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -1879,18 +1879,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -1899,18 +1899,18 @@
         <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -1919,18 +1919,18 @@
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
